--- a/Data/Excels/Synthetic/Depth without scale/3/ARAP_not_scaled_depth_InRays_3.xlsx
+++ b/Data/Excels/Synthetic/Depth without scale/3/ARAP_not_scaled_depth_InRays_3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S217"/>
+  <dimension ref="A1:S223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17087,12 +17087,12 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>2,50e-01</t>
+          <t>2,49e-01</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
@@ -17112,23 +17112,23 @@
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>-97,43</t>
+          <t>-97,23</t>
         </is>
       </c>
       <c r="M194" t="inlineStr">
         <is>
-          <t>-95,41</t>
+          <t>-95,09</t>
         </is>
       </c>
       <c r="N194" t="inlineStr">
         <is>
-          <t>-9,92</t>
+          <t>-9,86</t>
         </is>
       </c>
       <c r="O194" t="inlineStr"/>
       <c r="P194" t="inlineStr">
         <is>
-          <t>25,51</t>
+          <t>25,52</t>
         </is>
       </c>
       <c r="Q194" t="inlineStr">
@@ -17172,7 +17172,7 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -17197,17 +17197,17 @@
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>-97,79</t>
+          <t>-97,74</t>
         </is>
       </c>
       <c r="M195" t="inlineStr">
         <is>
-          <t>-94,34</t>
+          <t>-94,25</t>
         </is>
       </c>
       <c r="N195" t="inlineStr">
         <is>
-          <t>-9,84</t>
+          <t>-9,78</t>
         </is>
       </c>
       <c r="O195" t="inlineStr"/>
@@ -17237,42 +17237,42 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>INITIAL</t>
+          <t>5 / 10</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>2,72e-01</t>
+          <t>2,43e-01</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
@@ -17282,32 +17282,28 @@
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-97,76</t>
         </is>
       </c>
       <c r="M196" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-93,88</t>
         </is>
       </c>
       <c r="N196" t="inlineStr">
         <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="O196" t="inlineStr">
-        <is>
-          <t>73,59</t>
-        </is>
-      </c>
+          <t>-9,75</t>
+        </is>
+      </c>
+      <c r="O196" t="inlineStr"/>
       <c r="P196" t="inlineStr">
         <is>
-          <t>89,99</t>
+          <t>25,52</t>
         </is>
       </c>
       <c r="Q196" t="inlineStr">
         <is>
-          <t>149,58</t>
+          <t>25,87</t>
         </is>
       </c>
       <c r="R196" t="inlineStr"/>
@@ -17326,42 +17322,42 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>1 / 10</t>
+          <t>6 / 10</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>2,98</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>3,48</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>1,20e-01</t>
+          <t>2,42e-01</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -17371,28 +17367,28 @@
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>-41,21</t>
+          <t>-97,87</t>
         </is>
       </c>
       <c r="M197" t="inlineStr">
         <is>
-          <t>10,65</t>
+          <t>-93,61</t>
         </is>
       </c>
       <c r="N197" t="inlineStr">
         <is>
-          <t>-6,23</t>
+          <t>-9,75</t>
         </is>
       </c>
       <c r="O197" t="inlineStr"/>
       <c r="P197" t="inlineStr">
         <is>
-          <t>90,73</t>
+          <t>25,52</t>
         </is>
       </c>
       <c r="Q197" t="inlineStr">
         <is>
-          <t>148,96</t>
+          <t>25,87</t>
         </is>
       </c>
       <c r="R197" t="inlineStr"/>
@@ -17411,73 +17407,73 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>2 / 10</t>
+          <t>7 / 10</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>7,80e-01</t>
+          <t>2,41e-01</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>-188,5</t>
+          <t>-97,9</t>
         </is>
       </c>
       <c r="M198" t="inlineStr">
         <is>
-          <t>-151,63</t>
+          <t>-93,43</t>
         </is>
       </c>
       <c r="N198" t="inlineStr">
         <is>
-          <t>-35,54</t>
+          <t>-9,75</t>
         </is>
       </c>
       <c r="O198" t="inlineStr"/>
       <c r="P198" t="inlineStr">
         <is>
-          <t>36,30</t>
+          <t>25,52</t>
         </is>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
-          <t>37,06</t>
+          <t>25,88</t>
         </is>
       </c>
       <c r="R198" t="inlineStr"/>
@@ -17496,73 +17492,73 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>3 / 10</t>
+          <t>8 / 10</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>1,19</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>7,53e-01</t>
+          <t>2,41e-01</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>-186,16</t>
+          <t>-97,96</t>
         </is>
       </c>
       <c r="M199" t="inlineStr">
         <is>
-          <t>-146,08</t>
+          <t>-93,3</t>
         </is>
       </c>
       <c r="N199" t="inlineStr">
         <is>
-          <t>-34,95</t>
+          <t>-9,75</t>
         </is>
       </c>
       <c r="O199" t="inlineStr"/>
       <c r="P199" t="inlineStr">
         <is>
-          <t>36,41</t>
+          <t>25,52</t>
         </is>
       </c>
       <c r="Q199" t="inlineStr">
         <is>
-          <t>37,26</t>
+          <t>25,88</t>
         </is>
       </c>
       <c r="R199" t="inlineStr"/>
@@ -17581,73 +17577,73 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>4 / 10</t>
+          <t>9 / 10</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>8,56e-01</t>
+          <t>2,40e-01</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>-198,43</t>
+          <t>-97,96</t>
         </is>
       </c>
       <c r="M200" t="inlineStr">
         <is>
-          <t>-151,1</t>
+          <t>-92,98</t>
         </is>
       </c>
       <c r="N200" t="inlineStr">
         <is>
-          <t>-40,26</t>
+          <t>-9,74</t>
         </is>
       </c>
       <c r="O200" t="inlineStr"/>
       <c r="P200" t="inlineStr">
         <is>
-          <t>36,46</t>
+          <t>25,53</t>
         </is>
       </c>
       <c r="Q200" t="inlineStr">
         <is>
-          <t>37,29</t>
+          <t>25,88</t>
         </is>
       </c>
       <c r="R200" t="inlineStr"/>
@@ -17666,77 +17662,89 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>5 / 10</t>
+          <t>FINAL</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>1,04</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>1,12</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>7,78e-01</t>
+          <t>2,39e-01</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>-197,23</t>
+          <t>-97,99</t>
         </is>
       </c>
       <c r="M201" t="inlineStr">
         <is>
-          <t>-152,83</t>
+          <t>-92,77</t>
         </is>
       </c>
       <c r="N201" t="inlineStr">
         <is>
-          <t>-40,2</t>
-        </is>
-      </c>
-      <c r="O201" t="inlineStr"/>
+          <t>-9,73</t>
+        </is>
+      </c>
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>42,25</t>
+        </is>
+      </c>
       <c r="P201" t="inlineStr">
         <is>
-          <t>36,55</t>
+          <t>25,53</t>
         </is>
       </c>
       <c r="Q201" t="inlineStr">
         <is>
-          <t>37,57</t>
-        </is>
-      </c>
-      <c r="R201" t="inlineStr"/>
-      <c r="S201" t="inlineStr"/>
+          <t>25,88</t>
+        </is>
+      </c>
+      <c r="R201" t="inlineStr">
+        <is>
+          <t>56,71</t>
+        </is>
+      </c>
+      <c r="S201" t="inlineStr">
+        <is>
+          <t>60,42</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -17761,7 +17769,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>6 / 10</t>
+          <t>INITIAL</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -17776,48 +17784,52 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>8,64e-01</t>
+          <t>2,72e-01</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>-201,08</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="M202" t="inlineStr">
         <is>
-          <t>-151,75</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="N202" t="inlineStr">
         <is>
-          <t>-43,01</t>
-        </is>
-      </c>
-      <c r="O202" t="inlineStr"/>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>73,59</t>
+        </is>
+      </c>
       <c r="P202" t="inlineStr">
         <is>
-          <t>36,58</t>
+          <t>89,99</t>
         </is>
       </c>
       <c r="Q202" t="inlineStr">
         <is>
-          <t>37,63</t>
+          <t>149,58</t>
         </is>
       </c>
       <c r="R202" t="inlineStr"/>
@@ -17846,63 +17858,63 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>7 / 10</t>
+          <t>1 / 10</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>2,98</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>1,09</t>
+          <t>3,48</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>7,89e-01</t>
+          <t>1,20e-01</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>-201,03</t>
+          <t>-41,21</t>
         </is>
       </c>
       <c r="M203" t="inlineStr">
         <is>
-          <t>-153,74</t>
+          <t>10,65</t>
         </is>
       </c>
       <c r="N203" t="inlineStr">
         <is>
-          <t>-43,02</t>
+          <t>-6,23</t>
         </is>
       </c>
       <c r="O203" t="inlineStr"/>
       <c r="P203" t="inlineStr">
         <is>
-          <t>36,64</t>
+          <t>90,73</t>
         </is>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
-          <t>37,87</t>
+          <t>148,96</t>
         </is>
       </c>
       <c r="R203" t="inlineStr"/>
@@ -17931,7 +17943,7 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>8 / 10</t>
+          <t>2 / 10</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -17946,7 +17958,7 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>8,67e-01</t>
+          <t>7,80e-01</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
@@ -17966,28 +17978,28 @@
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>-203,48</t>
+          <t>-188,5</t>
         </is>
       </c>
       <c r="M204" t="inlineStr">
         <is>
-          <t>-151,87</t>
+          <t>-151,63</t>
         </is>
       </c>
       <c r="N204" t="inlineStr">
         <is>
-          <t>-45,28</t>
+          <t>-35,54</t>
         </is>
       </c>
       <c r="O204" t="inlineStr"/>
       <c r="P204" t="inlineStr">
         <is>
-          <t>36,68</t>
+          <t>36,30</t>
         </is>
       </c>
       <c r="Q204" t="inlineStr">
         <is>
-          <t>37,95</t>
+          <t>37,06</t>
         </is>
       </c>
       <c r="R204" t="inlineStr"/>
@@ -18016,34 +18028,34 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>9 / 10</t>
+          <t>3 / 10</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
+          <t>1,05</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>1,19</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>7,53e-01</t>
+        </is>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
           <t>0,98</t>
         </is>
       </c>
-      <c r="G205" t="inlineStr">
-        <is>
-          <t>1,07</t>
-        </is>
-      </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>7,89e-01</t>
-        </is>
-      </c>
-      <c r="I205" t="inlineStr">
+      <c r="J205" t="inlineStr">
         <is>
           <t>0,98</t>
         </is>
       </c>
-      <c r="J205" t="inlineStr">
-        <is>
-          <t>0,98</t>
-        </is>
-      </c>
       <c r="K205" t="inlineStr">
         <is>
           <t>0,99</t>
@@ -18051,28 +18063,28 @@
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>-200,82</t>
+          <t>-186,16</t>
         </is>
       </c>
       <c r="M205" t="inlineStr">
         <is>
-          <t>-154,86</t>
+          <t>-146,08</t>
         </is>
       </c>
       <c r="N205" t="inlineStr">
         <is>
-          <t>-45,24</t>
+          <t>-34,95</t>
         </is>
       </c>
       <c r="O205" t="inlineStr"/>
       <c r="P205" t="inlineStr">
         <is>
-          <t>36,74</t>
+          <t>36,41</t>
         </is>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
-          <t>38,21</t>
+          <t>37,26</t>
         </is>
       </c>
       <c r="R205" t="inlineStr"/>
@@ -18101,7 +18113,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>FINAL</t>
+          <t>4 / 10</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -18116,7 +18128,7 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>8,70e-01</t>
+          <t>8,56e-01</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
@@ -18136,44 +18148,32 @@
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>-203,92</t>
+          <t>-198,43</t>
         </is>
       </c>
       <c r="M206" t="inlineStr">
         <is>
-          <t>-152,28</t>
+          <t>-151,1</t>
         </is>
       </c>
       <c r="N206" t="inlineStr">
         <is>
-          <t>-47,4</t>
-        </is>
-      </c>
-      <c r="O206" t="inlineStr">
-        <is>
-          <t>73,59</t>
-        </is>
-      </c>
+          <t>-40,26</t>
+        </is>
+      </c>
+      <c r="O206" t="inlineStr"/>
       <c r="P206" t="inlineStr">
         <is>
-          <t>36,81</t>
+          <t>36,46</t>
         </is>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
-          <t>38,33</t>
-        </is>
-      </c>
-      <c r="R206" t="inlineStr">
-        <is>
-          <t>59,09</t>
-        </is>
-      </c>
-      <c r="S206" t="inlineStr">
-        <is>
-          <t>50,02</t>
-        </is>
-      </c>
+          <t>37,29</t>
+        </is>
+      </c>
+      <c r="R206" t="inlineStr"/>
+      <c r="S206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -18188,77 +18188,73 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="D207" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>INITIAL</t>
+          <t>5 / 10</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>6,88e-01</t>
+          <t>7,78e-01</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-197,23</t>
         </is>
       </c>
       <c r="M207" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-152,83</t>
         </is>
       </c>
       <c r="N207" t="inlineStr">
         <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="O207" t="inlineStr">
-        <is>
-          <t>76,42</t>
-        </is>
-      </c>
+          <t>-40,2</t>
+        </is>
+      </c>
+      <c r="O207" t="inlineStr"/>
       <c r="P207" t="inlineStr">
         <is>
-          <t>100,03</t>
+          <t>36,55</t>
         </is>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
-          <t>141,88</t>
+          <t>37,57</t>
         </is>
       </c>
       <c r="R207" t="inlineStr"/>
@@ -18277,73 +18273,73 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="D208" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>1 / 10</t>
+          <t>6 / 10</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>3,34</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>3,89</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>3,13e-01</t>
+          <t>8,64e-01</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
+          <t>0,98</t>
+        </is>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>0,98</t>
+        </is>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
           <t>0,99</t>
         </is>
       </c>
-      <c r="J208" t="inlineStr">
-        <is>
-          <t>0,99</t>
-        </is>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>1,00</t>
-        </is>
-      </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>-65,7</t>
+          <t>-201,08</t>
         </is>
       </c>
       <c r="M208" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>-151,75</t>
         </is>
       </c>
       <c r="N208" t="inlineStr">
         <is>
-          <t>-8,29</t>
+          <t>-43,01</t>
         </is>
       </c>
       <c r="O208" t="inlineStr"/>
       <c r="P208" t="inlineStr">
         <is>
-          <t>100,13</t>
+          <t>36,58</t>
         </is>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
-          <t>140,81</t>
+          <t>37,63</t>
         </is>
       </c>
       <c r="R208" t="inlineStr"/>
@@ -18362,73 +18358,73 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>2 / 10</t>
+          <t>7 / 10</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>3,50</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>4,10</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>2,73e-01</t>
+          <t>7,89e-01</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
+          <t>0,98</t>
+        </is>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>0,98</t>
+        </is>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
           <t>0,99</t>
         </is>
       </c>
-      <c r="J209" t="inlineStr">
-        <is>
-          <t>0,99</t>
-        </is>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>1,00</t>
-        </is>
-      </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>-73,1</t>
+          <t>-201,03</t>
         </is>
       </c>
       <c r="M209" t="inlineStr">
         <is>
-          <t>2,26</t>
+          <t>-153,74</t>
         </is>
       </c>
       <c r="N209" t="inlineStr">
         <is>
-          <t>-8,5</t>
+          <t>-43,02</t>
         </is>
       </c>
       <c r="O209" t="inlineStr"/>
       <c r="P209" t="inlineStr">
         <is>
-          <t>100,02</t>
+          <t>36,64</t>
         </is>
       </c>
       <c r="Q209" t="inlineStr">
         <is>
-          <t>140,64</t>
+          <t>37,87</t>
         </is>
       </c>
       <c r="R209" t="inlineStr"/>
@@ -18447,17 +18443,17 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>3 / 10</t>
+          <t>8 / 10</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
@@ -18472,7 +18468,7 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>1,19e+00</t>
+          <t>8,67e-01</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
@@ -18487,33 +18483,33 @@
       </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="L210" t="inlineStr">
         <is>
-          <t>-214,59</t>
+          <t>-203,48</t>
         </is>
       </c>
       <c r="M210" t="inlineStr">
         <is>
-          <t>-150,01</t>
+          <t>-151,87</t>
         </is>
       </c>
       <c r="N210" t="inlineStr">
         <is>
-          <t>-43,9</t>
+          <t>-45,28</t>
         </is>
       </c>
       <c r="O210" t="inlineStr"/>
       <c r="P210" t="inlineStr">
         <is>
-          <t>41,73</t>
+          <t>36,68</t>
         </is>
       </c>
       <c r="Q210" t="inlineStr">
         <is>
-          <t>42,85</t>
+          <t>37,95</t>
         </is>
       </c>
       <c r="R210" t="inlineStr"/>
@@ -18532,32 +18528,32 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="D211" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>4 / 10</t>
+          <t>9 / 10</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>2,13</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>2,60</t>
+          <t>1,07</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>7,73e-01</t>
+          <t>7,89e-01</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
@@ -18577,28 +18573,28 @@
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>-206,0</t>
+          <t>-200,82</t>
         </is>
       </c>
       <c r="M211" t="inlineStr">
         <is>
-          <t>-142,62</t>
+          <t>-154,86</t>
         </is>
       </c>
       <c r="N211" t="inlineStr">
         <is>
-          <t>-41,34</t>
+          <t>-45,24</t>
         </is>
       </c>
       <c r="O211" t="inlineStr"/>
       <c r="P211" t="inlineStr">
         <is>
-          <t>43,24</t>
+          <t>36,74</t>
         </is>
       </c>
       <c r="Q211" t="inlineStr">
         <is>
-          <t>44,74</t>
+          <t>38,21</t>
         </is>
       </c>
       <c r="R211" t="inlineStr"/>
@@ -18617,17 +18613,17 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>5 / 10</t>
+          <t>FINAL</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
@@ -18642,7 +18638,7 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>1,20e+00</t>
+          <t>8,70e-01</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
@@ -18662,32 +18658,44 @@
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>-211,16</t>
+          <t>-203,92</t>
         </is>
       </c>
       <c r="M212" t="inlineStr">
         <is>
-          <t>-146,54</t>
+          <t>-152,28</t>
         </is>
       </c>
       <c r="N212" t="inlineStr">
         <is>
-          <t>-45,18</t>
-        </is>
-      </c>
-      <c r="O212" t="inlineStr"/>
+          <t>-47,4</t>
+        </is>
+      </c>
+      <c r="O212" t="inlineStr">
+        <is>
+          <t>73,59</t>
+        </is>
+      </c>
       <c r="P212" t="inlineStr">
         <is>
-          <t>42,15</t>
+          <t>36,81</t>
         </is>
       </c>
       <c r="Q212" t="inlineStr">
         <is>
-          <t>43,35</t>
-        </is>
-      </c>
-      <c r="R212" t="inlineStr"/>
-      <c r="S212" t="inlineStr"/>
+          <t>38,33</t>
+        </is>
+      </c>
+      <c r="R212" t="inlineStr">
+        <is>
+          <t>59,09</t>
+        </is>
+      </c>
+      <c r="S212" t="inlineStr">
+        <is>
+          <t>50,02</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -18712,63 +18720,67 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>6 / 10</t>
+          <t>INITIAL</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>1,83</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>2,19</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>8,45e-01</t>
+          <t>6,88e-01</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="L213" t="inlineStr">
         <is>
-          <t>-211,25</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="M213" t="inlineStr">
         <is>
-          <t>-151,17</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="N213" t="inlineStr">
         <is>
-          <t>-45,97</t>
-        </is>
-      </c>
-      <c r="O213" t="inlineStr"/>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="O213" t="inlineStr">
+        <is>
+          <t>76,42</t>
+        </is>
+      </c>
       <c r="P213" t="inlineStr">
         <is>
-          <t>43,20</t>
+          <t>100,03</t>
         </is>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
-          <t>44,85</t>
+          <t>141,88</t>
         </is>
       </c>
       <c r="R213" t="inlineStr"/>
@@ -18797,63 +18809,63 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>7 / 10</t>
+          <t>1 / 10</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>1,84</t>
+          <t>3,34</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>2,09</t>
+          <t>3,89</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>8,37e-01</t>
+          <t>3,13e-01</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>-211,92</t>
+          <t>-65,7</t>
         </is>
       </c>
       <c r="M214" t="inlineStr">
         <is>
-          <t>-148,69</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="N214" t="inlineStr">
         <is>
-          <t>-46,19</t>
+          <t>-8,29</t>
         </is>
       </c>
       <c r="O214" t="inlineStr"/>
       <c r="P214" t="inlineStr">
         <is>
-          <t>43,17</t>
+          <t>100,13</t>
         </is>
       </c>
       <c r="Q214" t="inlineStr">
         <is>
-          <t>44,90</t>
+          <t>140,81</t>
         </is>
       </c>
       <c r="R214" t="inlineStr"/>
@@ -18882,63 +18894,63 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>8 / 10</t>
+          <t>2 / 10</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>3,50</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>4,10</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>1,18e+00</t>
+          <t>2,73e-01</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>-212,85</t>
+          <t>-73,1</t>
         </is>
       </c>
       <c r="M215" t="inlineStr">
         <is>
-          <t>-148,17</t>
+          <t>2,26</t>
         </is>
       </c>
       <c r="N215" t="inlineStr">
         <is>
-          <t>-47,84</t>
+          <t>-8,5</t>
         </is>
       </c>
       <c r="O215" t="inlineStr"/>
       <c r="P215" t="inlineStr">
         <is>
-          <t>42,47</t>
+          <t>100,02</t>
         </is>
       </c>
       <c r="Q215" t="inlineStr">
         <is>
-          <t>44,05</t>
+          <t>140,64</t>
         </is>
       </c>
       <c r="R215" t="inlineStr"/>
@@ -18967,22 +18979,22 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>9 / 10</t>
+          <t>3 / 10</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>1,70</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>2,02</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>8,61e-01</t>
+          <t>1,19e+00</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
@@ -19002,28 +19014,28 @@
       </c>
       <c r="L216" t="inlineStr">
         <is>
-          <t>-213,88</t>
+          <t>-214,59</t>
         </is>
       </c>
       <c r="M216" t="inlineStr">
         <is>
-          <t>-150,08</t>
+          <t>-150,01</t>
         </is>
       </c>
       <c r="N216" t="inlineStr">
         <is>
-          <t>-48,16</t>
+          <t>-43,9</t>
         </is>
       </c>
       <c r="O216" t="inlineStr"/>
       <c r="P216" t="inlineStr">
         <is>
-          <t>43,26</t>
+          <t>41,73</t>
         </is>
       </c>
       <c r="Q216" t="inlineStr">
         <is>
-          <t>45,21</t>
+          <t>42,85</t>
         </is>
       </c>
       <c r="R216" t="inlineStr"/>
@@ -19052,75 +19064,585 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
+          <t>4 / 10</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>2,13</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>2,60</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>7,73e-01</t>
+        </is>
+      </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>0,98</t>
+        </is>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>0,98</t>
+        </is>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>0,99</t>
+        </is>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>-206,0</t>
+        </is>
+      </c>
+      <c r="M217" t="inlineStr">
+        <is>
+          <t>-142,62</t>
+        </is>
+      </c>
+      <c r="N217" t="inlineStr">
+        <is>
+          <t>-41,34</t>
+        </is>
+      </c>
+      <c r="O217" t="inlineStr"/>
+      <c r="P217" t="inlineStr">
+        <is>
+          <t>43,24</t>
+        </is>
+      </c>
+      <c r="Q217" t="inlineStr">
+        <is>
+          <t>44,74</t>
+        </is>
+      </c>
+      <c r="R217" t="inlineStr"/>
+      <c r="S217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Gradual</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>5 / 10</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>1,20e+00</t>
+        </is>
+      </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>0,98</t>
+        </is>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>0,98</t>
+        </is>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>0,99</t>
+        </is>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>-211,16</t>
+        </is>
+      </c>
+      <c r="M218" t="inlineStr">
+        <is>
+          <t>-146,54</t>
+        </is>
+      </c>
+      <c r="N218" t="inlineStr">
+        <is>
+          <t>-45,18</t>
+        </is>
+      </c>
+      <c r="O218" t="inlineStr"/>
+      <c r="P218" t="inlineStr">
+        <is>
+          <t>42,15</t>
+        </is>
+      </c>
+      <c r="Q218" t="inlineStr">
+        <is>
+          <t>43,35</t>
+        </is>
+      </c>
+      <c r="R218" t="inlineStr"/>
+      <c r="S218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Gradual</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>6 / 10</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>1,83</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>2,19</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>8,45e-01</t>
+        </is>
+      </c>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>0,98</t>
+        </is>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>0,98</t>
+        </is>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>0,98</t>
+        </is>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>-211,25</t>
+        </is>
+      </c>
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>-151,17</t>
+        </is>
+      </c>
+      <c r="N219" t="inlineStr">
+        <is>
+          <t>-45,97</t>
+        </is>
+      </c>
+      <c r="O219" t="inlineStr"/>
+      <c r="P219" t="inlineStr">
+        <is>
+          <t>43,20</t>
+        </is>
+      </c>
+      <c r="Q219" t="inlineStr">
+        <is>
+          <t>44,85</t>
+        </is>
+      </c>
+      <c r="R219" t="inlineStr"/>
+      <c r="S219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Gradual</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>7 / 10</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>1,84</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>2,09</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>8,37e-01</t>
+        </is>
+      </c>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>0,98</t>
+        </is>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>0,98</t>
+        </is>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>0,98</t>
+        </is>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>-211,92</t>
+        </is>
+      </c>
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>-148,69</t>
+        </is>
+      </c>
+      <c r="N220" t="inlineStr">
+        <is>
+          <t>-46,19</t>
+        </is>
+      </c>
+      <c r="O220" t="inlineStr"/>
+      <c r="P220" t="inlineStr">
+        <is>
+          <t>43,17</t>
+        </is>
+      </c>
+      <c r="Q220" t="inlineStr">
+        <is>
+          <t>44,90</t>
+        </is>
+      </c>
+      <c r="R220" t="inlineStr"/>
+      <c r="S220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Gradual</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>8 / 10</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>1,18e+00</t>
+        </is>
+      </c>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>0,98</t>
+        </is>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>0,98</t>
+        </is>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>0,98</t>
+        </is>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>-212,85</t>
+        </is>
+      </c>
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>-148,17</t>
+        </is>
+      </c>
+      <c r="N221" t="inlineStr">
+        <is>
+          <t>-47,84</t>
+        </is>
+      </c>
+      <c r="O221" t="inlineStr"/>
+      <c r="P221" t="inlineStr">
+        <is>
+          <t>42,47</t>
+        </is>
+      </c>
+      <c r="Q221" t="inlineStr">
+        <is>
+          <t>44,05</t>
+        </is>
+      </c>
+      <c r="R221" t="inlineStr"/>
+      <c r="S221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Gradual</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>9 / 10</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>1,70</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>2,02</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>8,61e-01</t>
+        </is>
+      </c>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>0,98</t>
+        </is>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>0,98</t>
+        </is>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>0,98</t>
+        </is>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>-213,88</t>
+        </is>
+      </c>
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>-150,08</t>
+        </is>
+      </c>
+      <c r="N222" t="inlineStr">
+        <is>
+          <t>-48,16</t>
+        </is>
+      </c>
+      <c r="O222" t="inlineStr"/>
+      <c r="P222" t="inlineStr">
+        <is>
+          <t>43,26</t>
+        </is>
+      </c>
+      <c r="Q222" t="inlineStr">
+        <is>
+          <t>45,21</t>
+        </is>
+      </c>
+      <c r="R222" t="inlineStr"/>
+      <c r="S222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Gradual</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
           <t>FINAL</t>
         </is>
       </c>
-      <c r="F217" t="inlineStr">
+      <c r="F223" t="inlineStr">
         <is>
           <t>1,80</t>
         </is>
       </c>
-      <c r="G217" t="inlineStr">
+      <c r="G223" t="inlineStr">
         <is>
           <t>2,10</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
+      <c r="H223" t="inlineStr">
         <is>
           <t>8,52e-01</t>
         </is>
       </c>
-      <c r="I217" t="inlineStr">
+      <c r="I223" t="inlineStr">
         <is>
           <t>0,98</t>
         </is>
       </c>
-      <c r="J217" t="inlineStr">
+      <c r="J223" t="inlineStr">
         <is>
           <t>0,98</t>
         </is>
       </c>
-      <c r="K217" t="inlineStr">
+      <c r="K223" t="inlineStr">
         <is>
           <t>0,98</t>
         </is>
       </c>
-      <c r="L217" t="inlineStr">
+      <c r="L223" t="inlineStr">
         <is>
           <t>-214,66</t>
         </is>
       </c>
-      <c r="M217" t="inlineStr">
+      <c r="M223" t="inlineStr">
         <is>
           <t>-149,04</t>
         </is>
       </c>
-      <c r="N217" t="inlineStr">
+      <c r="N223" t="inlineStr">
         <is>
           <t>-48,15</t>
         </is>
       </c>
-      <c r="O217" t="inlineStr">
+      <c r="O223" t="inlineStr">
         <is>
           <t>76,42</t>
         </is>
       </c>
-      <c r="P217" t="inlineStr">
+      <c r="P223" t="inlineStr">
         <is>
           <t>43,34</t>
         </is>
       </c>
-      <c r="Q217" t="inlineStr">
+      <c r="Q223" t="inlineStr">
         <is>
           <t>45,30</t>
         </is>
       </c>
-      <c r="R217" t="inlineStr">
+      <c r="R223" t="inlineStr">
         <is>
           <t>56,67</t>
         </is>
       </c>
-      <c r="S217" t="inlineStr">
+      <c r="S223" t="inlineStr">
         <is>
           <t>56,72</t>
         </is>
